--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/63.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/63.xlsx
@@ -479,13 +479,13 @@
         <v>-4.449361475606359</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.626298487104089</v>
+        <v>-8.673064192854735</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.061703194890942</v>
+        <v>-3.057775504038424</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.436764761105626</v>
+        <v>-5.437956160664223</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-4.095596993691999</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.870901981096058</v>
+        <v>-8.921634654607745</v>
       </c>
       <c r="F3" t="n">
-        <v>-3.156229621408204</v>
+        <v>-3.149788208410075</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.363932280397104</v>
+        <v>-5.367715955918363</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-3.824846020935448</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.690467046685267</v>
+        <v>-9.740270166695193</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.040781694949863</v>
+        <v>-3.030622067944684</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.238678219110311</v>
+        <v>-5.240314756965526</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-3.653792102301026</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.46053011522991</v>
+        <v>-10.50815991296811</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.944383069126234</v>
+        <v>-2.937784548494005</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.445877003883467</v>
+        <v>-5.44976541782746</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-3.56036910102154</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.23931265746715</v>
+        <v>-11.28788510100995</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.791556618054766</v>
+        <v>-2.787170696602788</v>
       </c>
       <c r="G6" t="n">
-        <v>-4.998931969472623</v>
+        <v>-5.002715644993882</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-3.52946132607068</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.90150824289881</v>
+        <v>-11.95072220928086</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.760828983285235</v>
+        <v>-2.756508523347466</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.138299533222797</v>
+        <v>-5.13968731732402</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-3.537087288880637</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.39875390482756</v>
+        <v>-12.45037685493249</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.640824935437974</v>
+        <v>-2.636085521809269</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.698280327015225</v>
+        <v>-4.697926834838499</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-3.560124083622802</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.37579318899705</v>
+        <v>-13.42609381651497</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.386860444914172</v>
+        <v>-2.379764416773956</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.615720265295301</v>
+        <v>-4.613795696777567</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-3.582202755384762</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.12299709678005</v>
+        <v>-14.17175283256263</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.362246915571727</v>
+        <v>-2.356368471595792</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.247407601751863</v>
+        <v>-4.242000480678231</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-3.58978256574068</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.82045025376448</v>
+        <v>-14.86753017478332</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.185356811877166</v>
+        <v>-2.182018274652525</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.032445081393563</v>
+        <v>-4.029014898049031</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-3.573635485907294</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.4842038232343</v>
+        <v>-15.52781428400009</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.169672233072778</v>
+        <v>-2.169488940832994</v>
       </c>
       <c r="G12" t="n">
-        <v>-3.515168196116966</v>
+        <v>-3.510900105390563</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-3.528196646362667</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.45503735585682</v>
+        <v>-16.49879183195387</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.00524600168354</v>
+        <v>-2.003269063954439</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.874601094979834</v>
+        <v>-2.87244086501095</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-3.461618324088428</v>
       </c>
       <c r="E14" t="n">
-        <v>-17.09819673295661</v>
+        <v>-17.13833773346934</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.723316352289811</v>
+        <v>-1.72376149058643</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.511564629481613</v>
+        <v>-2.508239184559814</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-3.384094340287827</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.00390915124438</v>
+        <v>-18.04271473686725</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.554713676294063</v>
+        <v>-1.5592436130773</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.915498265703508</v>
+        <v>-1.915838665577393</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-3.308708363858615</v>
       </c>
       <c r="E16" t="n">
-        <v>-18.92075002694761</v>
+        <v>-18.95719899805898</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.387302399856911</v>
+        <v>-1.394031843517559</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.564716195665141</v>
+        <v>-1.556232383423703</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-3.245961841592907</v>
       </c>
       <c r="E17" t="n">
-        <v>-19.71087050344578</v>
+        <v>-19.74710999771168</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.140826706558576</v>
+        <v>-1.150829225929655</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.036716714361171</v>
+        <v>-1.027774671520272</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-3.212359104748773</v>
       </c>
       <c r="E18" t="n">
-        <v>-20.69725769184426</v>
+        <v>-20.7302764796111</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.042935558210991</v>
+        <v>-1.055203045973688</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6752251405982723</v>
+        <v>-0.6684956969376251</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-3.219767695639861</v>
       </c>
       <c r="E19" t="n">
-        <v>-21.5377573496774</v>
+        <v>-21.57081541435275</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.89145761433222</v>
+        <v>-0.9040131327574353</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.3070172154775684</v>
+        <v>-0.2970277884093314</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-3.275485013107317</v>
       </c>
       <c r="E20" t="n">
-        <v>-22.18684753996449</v>
+        <v>-22.21905460495514</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.6347175556059719</v>
+        <v>-0.6483990120755756</v>
       </c>
       <c r="G20" t="n">
-        <v>0.07059098308349487</v>
+        <v>0.07639087324237953</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-3.377994891443789</v>
       </c>
       <c r="E21" t="n">
-        <v>-22.81742521403338</v>
+        <v>-22.84857180249385</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.3335291287320637</v>
+        <v>-0.3473415082300847</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3873330657333737</v>
+        <v>0.3948611398673662</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-3.528536463364352</v>
       </c>
       <c r="E22" t="n">
-        <v>-23.4477279497426</v>
+        <v>-23.47887453820307</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.06259701372538441</v>
+        <v>-0.08130591448621097</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3514994328555694</v>
+        <v>0.3632170438989142</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-3.723102314901342</v>
       </c>
       <c r="E23" t="n">
-        <v>-23.95843249899265</v>
+        <v>-23.9853371813324</v>
       </c>
       <c r="F23" t="n">
-        <v>0.05308657418410713</v>
+        <v>0.03054162869065484</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6111721674183642</v>
+        <v>0.6244608548027162</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-3.953199499140322</v>
       </c>
       <c r="E24" t="n">
-        <v>-24.34197151074102</v>
+        <v>-24.37076148468998</v>
       </c>
       <c r="F24" t="n">
-        <v>0.03394562742950361</v>
+        <v>0.01195055865540382</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5424375774993023</v>
+        <v>0.5557655417921795</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-4.20380416653827</v>
       </c>
       <c r="E25" t="n">
-        <v>-24.6148805634768</v>
+        <v>-24.64241367635295</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3209158134172973</v>
+        <v>0.3012511745490247</v>
       </c>
       <c r="G25" t="n">
-        <v>0.531557873837828</v>
+        <v>0.545370253335849</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-4.465161495151363</v>
       </c>
       <c r="E26" t="n">
-        <v>-24.63169108032557</v>
+        <v>-24.65593802518845</v>
       </c>
       <c r="F26" t="n">
-        <v>0.3339164701391313</v>
+        <v>0.3135841238259307</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3716092100204607</v>
+        <v>0.3871890504021147</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-4.726303856885608</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.60841296587299</v>
+        <v>-24.6292820966027</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1524047835414411</v>
+        <v>0.1316403912344635</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3477026650314688</v>
+        <v>0.3622351211857848</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-4.975015423023059</v>
       </c>
       <c r="E28" t="n">
-        <v>-24.7210591395232</v>
+        <v>-24.7424912392751</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2683502175077672</v>
+        <v>0.2499293474094586</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05992075626748813</v>
+        <v>0.07239772087565308</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-5.196360325951145</v>
       </c>
       <c r="E29" t="n">
-        <v>-24.76612284590442</v>
+        <v>-24.78618025385794</v>
       </c>
       <c r="F29" t="n">
-        <v>0.214828883490791</v>
+        <v>0.2001131350966909</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.0351686392719683</v>
+        <v>-0.02435439712470257</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-5.382345087179901</v>
       </c>
       <c r="E30" t="n">
-        <v>-24.54004496043349</v>
+        <v>-24.56108429110014</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08956172990115595</v>
+        <v>0.0727119361438545</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.230754551424514</v>
+        <v>-0.2183561406333994</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-5.526321069897857</v>
       </c>
       <c r="E31" t="n">
-        <v>-24.06726881251592</v>
+        <v>-24.09112298829355</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08793828434878193</v>
+        <v>0.07254173620691207</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.6903729349861494</v>
+        <v>-0.683316183754459</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-5.621754130245927</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.15159633511948</v>
+        <v>-24.17077655878261</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1510562763487433</v>
+        <v>0.1351491283960461</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.7467483910226218</v>
+        <v>-0.7448369148077298</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.660769940057383</v>
       </c>
       <c r="E33" t="n">
-        <v>-23.72862330721184</v>
+        <v>-23.75201925239</v>
       </c>
       <c r="F33" t="n">
-        <v>0.06481727753029369</v>
+        <v>0.05358408169209272</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.209312542723646</v>
+        <v>-1.210726511430552</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.642204860258916</v>
       </c>
       <c r="E34" t="n">
-        <v>-23.16725154596431</v>
+        <v>-23.18713875398089</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.09183212597095872</v>
+        <v>-0.10056469196639</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.282184300340693</v>
+        <v>-1.283977945830009</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-5.566463089138947</v>
       </c>
       <c r="E35" t="n">
-        <v>-22.82504493428727</v>
+        <v>-22.8439764041964</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2830975781857348</v>
+        <v>-0.2932048359795474</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.304532861291519</v>
+        <v>-1.308093967664469</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-5.434307801346847</v>
       </c>
       <c r="E36" t="n">
-        <v>-22.09943023389028</v>
+        <v>-22.11885921130741</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.4146359448365566</v>
+        <v>-0.4217974344909808</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.507463555338273</v>
+        <v>-1.513158707074424</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.245862871495572</v>
       </c>
       <c r="E37" t="n">
-        <v>-21.28707902716686</v>
+        <v>-21.30961088035748</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3511251837513435</v>
+        <v>-0.3576320582636814</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.635440815616146</v>
+        <v>-1.637260645711146</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.008064888273634</v>
       </c>
       <c r="E38" t="n">
-        <v>-20.91228567371677</v>
+        <v>-20.93325954286922</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.4061783172008016</v>
+        <v>-0.4151596369502257</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.88471826172261</v>
+        <v>-1.887873506707466</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.728071165379138</v>
       </c>
       <c r="E39" t="n">
-        <v>-20.25839060828677</v>
+        <v>-20.27936447743921</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.2576592337642611</v>
+        <v>-0.2671511533245125</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.037034112983251</v>
+        <v>-2.038880127683934</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.412413179186848</v>
       </c>
       <c r="E40" t="n">
-        <v>-19.95443970551325</v>
+        <v>-19.97071343794552</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.5385807758391773</v>
+        <v>-0.5474311725601841</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.262103891135364</v>
+        <v>-2.263557136750796</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.066061417800459</v>
       </c>
       <c r="E41" t="n">
-        <v>-19.41922636534349</v>
+        <v>-19.4376472354418</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.2606573711150164</v>
+        <v>-0.2705027828519944</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.102089765803788</v>
+        <v>-2.105258103091486</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.699536143722045</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.86146807968028</v>
+        <v>-18.87945690378481</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.001325036426106412</v>
+        <v>-0.01351397037175338</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.073810391665659</v>
+        <v>-2.082202557787206</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.321814936514589</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.9581384605097</v>
+        <v>-17.97797329931492</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.01079077138067436</v>
+        <v>-0.02269167466380335</v>
       </c>
       <c r="G43" t="n">
-        <v>-1.962787663567823</v>
+        <v>-1.974282705462858</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-2.940045271284037</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.62318498460698</v>
+        <v>-17.64372680776565</v>
       </c>
       <c r="F44" t="n">
-        <v>0.03577854982734526</v>
+        <v>0.02413949260105079</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.164762619507131</v>
+        <v>-2.174529477427058</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-2.558843044705142</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.11288629674503</v>
+        <v>-17.13046925946146</v>
       </c>
       <c r="F45" t="n">
-        <v>0.005797176319792569</v>
+        <v>-0.005946619329235714</v>
       </c>
       <c r="G45" t="n">
-        <v>-2.20647469636087</v>
+        <v>-2.215521477624502</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-2.18659349210479</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.73593271332605</v>
+        <v>-16.75144709219349</v>
       </c>
       <c r="F46" t="n">
-        <v>0.02425732332662632</v>
+        <v>0.01435954237828142</v>
       </c>
       <c r="G46" t="n">
-        <v>-2.145752595780944</v>
+        <v>-2.154040023479757</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-1.828277242400572</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.06702077653658</v>
+        <v>-16.0838443856882</v>
       </c>
       <c r="F47" t="n">
-        <v>0.03047616717644621</v>
+        <v>0.02254223165436021</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.436008949782011</v>
+        <v>-2.448250252939025</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-1.486491368251201</v>
       </c>
       <c r="E48" t="n">
-        <v>-15.4171188634733</v>
+        <v>-15.43125855054236</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.0001729137760345185</v>
+        <v>-0.005645496363876015</v>
       </c>
       <c r="G48" t="n">
-        <v>-2.369919005036978</v>
+        <v>-2.382513800370718</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-1.161942989036861</v>
       </c>
       <c r="E49" t="n">
-        <v>-14.88005950860286</v>
+        <v>-14.89452650324296</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1510169994402181</v>
+        <v>0.1438816943914774</v>
       </c>
       <c r="G49" t="n">
-        <v>-2.551273584000568</v>
+        <v>-2.56585840936625</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.858779092023931</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.18196482877918</v>
+        <v>-14.19556773143173</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2974282221192407</v>
+        <v>0.2881719640101404</v>
       </c>
       <c r="G50" t="n">
-        <v>-2.461512755717694</v>
+        <v>-2.482944855469599</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.5782273199357211</v>
       </c>
       <c r="E51" t="n">
-        <v>-13.41743980433658</v>
+        <v>-13.42529518604162</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2922174855882337</v>
+        <v>0.2854880419275866</v>
       </c>
       <c r="G51" t="n">
-        <v>-2.527406315920101</v>
+        <v>-2.550252384378913</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.3194008807132647</v>
       </c>
       <c r="E52" t="n">
-        <v>-12.83032857570222</v>
+        <v>-12.83576188138154</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3768330388543094</v>
+        <v>0.3686503495782306</v>
       </c>
       <c r="G52" t="n">
-        <v>-2.538233650370208</v>
+        <v>-2.561145180343229</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.08029485815361581</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.17915670926329</v>
+        <v>-12.18732630623653</v>
       </c>
       <c r="F53" t="n">
-        <v>0.4260993744477246</v>
+        <v>0.4200114536263219</v>
       </c>
       <c r="G53" t="n">
-        <v>-2.557426966336179</v>
+        <v>-2.581032388359811</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1385629651433901</v>
       </c>
       <c r="E54" t="n">
-        <v>-11.80140449537097</v>
+        <v>-11.80922060016748</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3166869995994198</v>
+        <v>0.3094993253393122</v>
       </c>
       <c r="G54" t="n">
-        <v>-2.66249269664103</v>
+        <v>-2.688140517907972</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3384614402854348</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.34702303294602</v>
+        <v>-11.3533858921271</v>
       </c>
       <c r="F55" t="n">
-        <v>0.06765830724694824</v>
+        <v>0.06030043304989819</v>
       </c>
       <c r="G55" t="n">
-        <v>-3.126824309225687</v>
+        <v>-3.15718535951565</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.5217090391191486</v>
       </c>
       <c r="E56" t="n">
-        <v>-10.90124321348809</v>
+        <v>-10.90989722566647</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1594746270759732</v>
+        <v>0.1513704916169447</v>
       </c>
       <c r="G56" t="n">
-        <v>-3.196200421983994</v>
+        <v>-3.22802781019223</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.6904950079248087</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.14521509358978</v>
+        <v>-10.15291336766072</v>
       </c>
       <c r="F57" t="n">
-        <v>0.09563655841971686</v>
+        <v>0.08846197646245096</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.562038640290345</v>
+        <v>-3.593106674933761</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.8451404856690302</v>
       </c>
       <c r="E58" t="n">
-        <v>-9.84333277466526</v>
+        <v>-9.851685663878282</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.07922423833437651</v>
+        <v>-0.08821865038664232</v>
       </c>
       <c r="G58" t="n">
-        <v>-3.595528750959481</v>
+        <v>-3.625745785918184</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.988087096079004</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.298732253357981</v>
+        <v>-9.304021543706039</v>
       </c>
       <c r="F59" t="n">
-        <v>0.01201602016961245</v>
+        <v>0.001424347170656062</v>
       </c>
       <c r="G59" t="n">
-        <v>-3.881189706663101</v>
+        <v>-3.909874942189323</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>1.122071530533061</v>
       </c>
       <c r="E60" t="n">
-        <v>-8.934268726850011</v>
+        <v>-8.939662755620802</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1246938061036912</v>
+        <v>-0.1345784947491943</v>
       </c>
       <c r="G60" t="n">
-        <v>-3.793327262292278</v>
+        <v>-3.822732574474795</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>1.249466488799499</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.406923860688128</v>
+        <v>-8.409201921382587</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.1499619505882225</v>
+        <v>-0.1589039934291214</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.195431159470211</v>
+        <v>-4.225949317394274</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>1.371344073957867</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.895381404056206</v>
+        <v>-7.901403863363401</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.09255220262725365</v>
+        <v>-0.1037853984654546</v>
       </c>
       <c r="G62" t="n">
-        <v>-4.15264551378345</v>
+        <v>-4.181186733978413</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>1.490602513187838</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.411411337208961</v>
+        <v>-7.420850887557845</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.1498441198626469</v>
+        <v>-0.1569663326085459</v>
       </c>
       <c r="G63" t="n">
-        <v>-4.155552005014313</v>
+        <v>-4.184774024957045</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>1.609140117283685</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.060197221176817</v>
+        <v>-7.066128034364119</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.3078813074651223</v>
+        <v>-0.3158807045014169</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.404829451120778</v>
+        <v>-4.429469165068906</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>1.727313891560379</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.686045390565969</v>
+        <v>-6.694332818264781</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.2535875275804843</v>
+        <v>-0.2609323094746926</v>
       </c>
       <c r="G65" t="n">
-        <v>-4.689731053259578</v>
+        <v>-4.712917521592275</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>1.843759940531911</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.437095252030548</v>
+        <v>-6.443641403451411</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.371221868613393</v>
+        <v>-0.3772574202234287</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.684035901523427</v>
+        <v>-4.706397554777095</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>1.95875877914244</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.273664035657282</v>
+        <v>-6.280314925500878</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.4266023096338943</v>
+        <v>-0.4348504604241817</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.800216996940905</v>
+        <v>-4.820719543191047</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>2.070965855617222</v>
       </c>
       <c r="E68" t="n">
-        <v>-5.997390261091178</v>
+        <v>-6.003687658758048</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.3957568441387876</v>
+        <v>-0.4006795500072767</v>
       </c>
       <c r="G68" t="n">
-        <v>-4.798488812965797</v>
+        <v>-4.817904698080077</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>2.178017789273512</v>
       </c>
       <c r="E69" t="n">
-        <v>-5.863521464534529</v>
+        <v>-5.868431078100176</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.6520124876598921</v>
+        <v>-0.6583491622352874</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.899679221629498</v>
+        <v>-4.916934876774892</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>2.276621299245784</v>
       </c>
       <c r="E70" t="n">
-        <v>-5.625581952688999</v>
+        <v>-5.634563272438424</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.5963963851882397</v>
+        <v>-0.6033876749057214</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.767446962928064</v>
+        <v>-4.781887772962488</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>2.36597426511349</v>
       </c>
       <c r="E71" t="n">
-        <v>-5.503077274998969</v>
+        <v>-5.512045502445551</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.6963037481734513</v>
+        <v>-0.7001397929060771</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.74481037131472</v>
+        <v>-4.758020504882022</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>2.443661472314744</v>
       </c>
       <c r="E72" t="n">
-        <v>-5.481357144584545</v>
+        <v>-5.491019264081739</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.7894292982866488</v>
+        <v>-0.79520300383985</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.646316977036415</v>
+        <v>-4.657000296155263</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>2.506935070347549</v>
       </c>
       <c r="E73" t="n">
-        <v>-5.515240024338932</v>
+        <v>-5.527533696707313</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.8488290762795599</v>
+        <v>-0.8510154908541282</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.459476723182142</v>
+        <v>-4.468143827663365</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>2.553394312303729</v>
       </c>
       <c r="E74" t="n">
-        <v>-5.752315444196908</v>
+        <v>-5.763875947606152</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.7405033625671185</v>
+        <v>-0.7434884076150321</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.345049996345456</v>
+        <v>-4.354044408397722</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>2.584202609294375</v>
       </c>
       <c r="E75" t="n">
-        <v>-5.954722446129993</v>
+        <v>-5.964908257740856</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.071974285913939</v>
+        <v>-1.073296608500953</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.179379996186254</v>
+        <v>-4.189670546219851</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>2.599281297480457</v>
       </c>
       <c r="E76" t="n">
-        <v>-6.482617189011229</v>
+        <v>-6.491140278161193</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.9835750571266046</v>
+        <v>-0.987476563373439</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.013186303913383</v>
+        <v>-4.021094054829787</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>2.597630974517255</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.948624616359627</v>
+        <v>-6.9572131670238</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.042307127674588</v>
+        <v>-1.046627587612357</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.9341218870522</v>
+        <v>-3.945355082890401</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>2.578048650476144</v>
       </c>
       <c r="E78" t="n">
-        <v>-7.52352072644266</v>
+        <v>-7.534400430104135</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.134830431857066</v>
+        <v>-1.134620955011598</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.530224344384951</v>
+        <v>-3.543421385649411</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>2.541198537045686</v>
       </c>
       <c r="E79" t="n">
-        <v>-7.949164584130017</v>
+        <v>-7.9582899192107</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.100188198537859</v>
+        <v>-1.100489321503219</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.321087898791219</v>
+        <v>-3.338003154062729</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>2.485513248508327</v>
       </c>
       <c r="E80" t="n">
-        <v>-8.421678885990753</v>
+        <v>-8.430804221071435</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.285051514663031</v>
+        <v>-1.28853406721893</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.953194188938716</v>
+        <v>-2.97119610534609</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>2.408094509872147</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.363971198418303</v>
+        <v>-9.371054134255676</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.208461543038933</v>
+        <v>-1.21003261937994</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.929444751583825</v>
+        <v>-2.949593805657241</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>2.306252676706378</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.19035735378805</v>
+        <v>-10.19528005965654</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.301469262426555</v>
+        <v>-1.303367646338606</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.754662508646782</v>
+        <v>-2.774379516726421</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>2.177394374504447</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.02496547534241</v>
+        <v>-11.02919428916028</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.410973283394752</v>
+        <v>-1.414076159168241</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.379908432105215</v>
+        <v>-2.400397886052516</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>2.016723830210665</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.24264128574282</v>
+        <v>-12.24321734706786</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.486018363283526</v>
+        <v>-1.489134331359857</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.275300932399824</v>
+        <v>-2.295554724895974</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>1.818403517217188</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.13105877197667</v>
+        <v>-13.13111114118804</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.584904526647083</v>
+        <v>-1.58647560298809</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.929991444949299</v>
+        <v>-1.95237928280865</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>1.579079033577758</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.32446145290853</v>
+        <v>-14.32139785404356</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.795638233187506</v>
+        <v>-1.796633248203477</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.687325611777906</v>
+        <v>-1.706833143012078</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>1.293715215396916</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.42792001331772</v>
+        <v>-15.42208084625031</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.836800433321893</v>
+        <v>-1.838345325057216</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.271631904250262</v>
+        <v>-1.2911918046958</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.9567475477171508</v>
       </c>
       <c r="E88" t="n">
-        <v>-16.84403585789018</v>
+        <v>-16.83640304533345</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.861571070298438</v>
+        <v>-1.859031163547143</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.9663063096783679</v>
+        <v>-0.983705980155022</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.563144888165964</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.53993421419033</v>
+        <v>-18.52710375740543</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.088277386305767</v>
+        <v>-2.086051694822673</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.7568949257249595</v>
+        <v>-0.778143733237081</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1143198508825324</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.15416278536378</v>
+        <v>-20.13974815993505</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.310532319346909</v>
+        <v>-2.30894815070306</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.4678692481910148</v>
+        <v>-0.4893799017599708</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.3918381690551358</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.98229340036536</v>
+        <v>-21.96510320673418</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.521645702669741</v>
+        <v>-2.51807150399395</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.6329370024194971</v>
+        <v>-0.6514757032433812</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.9552776106832405</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.7060521771127</v>
+        <v>-23.68599476915918</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.624904695182435</v>
+        <v>-2.617978866979162</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.4541877917214111</v>
+        <v>-0.471783846740691</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-1.573976825149586</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.78539789904132</v>
+        <v>-25.76586418320146</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.798665738497824</v>
+        <v>-2.79234215622527</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.4515824234559076</v>
+        <v>-0.4669135100835689</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.237169171051037</v>
       </c>
       <c r="E94" t="n">
-        <v>-28.05424161230108</v>
+        <v>-28.03216798970993</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.671382370270563</v>
+        <v>-2.664823126546858</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.5863676812114775</v>
+        <v>-0.6016463986277718</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.939111621027947</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.33502550575249</v>
+        <v>-30.31212706808232</v>
       </c>
       <c r="F95" t="n">
-        <v>-3.159960927718096</v>
+        <v>-3.151896069167593</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.9728393687963893</v>
+        <v>-0.9837583493663888</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.676153067299426</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.51846812757567</v>
+        <v>-32.49632904347032</v>
       </c>
       <c r="F96" t="n">
-        <v>-3.219661828676367</v>
+        <v>-3.212146846845216</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.197699670103034</v>
+        <v>-1.211642972629473</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.433410498114853</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.74336098019576</v>
+        <v>-34.72111715766767</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.598867288184121</v>
+        <v>-3.584321739726963</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.433112367500111</v>
+        <v>-1.444227732612736</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.205152945448359</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.24772212927533</v>
+        <v>-37.22622456800921</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.844059935803966</v>
+        <v>-3.832080478703787</v>
       </c>
       <c r="G98" t="n">
-        <v>-1.863469454210489</v>
+        <v>-1.873445788975884</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.965145563344</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.78257525167329</v>
+        <v>-39.75843304523314</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.738562159505338</v>
+        <v>-3.729620116664439</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.342647738217662</v>
+        <v>-2.350372196894281</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-6.729017397251343</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.34881062398285</v>
+        <v>-42.32532303268479</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.920820107365006</v>
+        <v>-3.911864972221266</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.706325726555129</v>
+        <v>-2.711484093874769</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-7.441727615695508</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.59200651597567</v>
+        <v>-44.57409624568819</v>
       </c>
       <c r="F101" t="n">
-        <v>-4.162648033154529</v>
+        <v>-4.150799499082766</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.315850977654528</v>
+        <v>-3.31814213065183</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-8.15652730153308</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.89561029328021</v>
+        <v>-46.8805148681037</v>
       </c>
       <c r="F102" t="n">
-        <v>-4.306519349082256</v>
+        <v>-4.294893384158804</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.59279245966556</v>
+        <v>-3.597518780991423</v>
       </c>
     </row>
   </sheetData>
